--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
@@ -407,13 +407,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0553937931714483</v>
+        <v>-0.0405101384793125</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0778365291031607</v>
+        <v>-0.0643051395617496</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.032951057239736</v>
+        <v>-0.0167151373968755</v>
       </c>
     </row>
     <row r="3">
@@ -421,13 +421,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0568171395511542</v>
+        <v>-0.0395525406328933</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0891148683204101</v>
+        <v>-0.0736720078149598</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0245194107818982</v>
+        <v>-0.00543307345082682</v>
       </c>
     </row>
     <row r="4">
@@ -435,13 +435,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.022834116958244</v>
+        <v>0.0252544925943794</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0577299586936083</v>
+        <v>-0.0598679690449487</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103398192610096</v>
+        <v>0.110376954233708</v>
       </c>
     </row>
     <row r="5">
@@ -449,13 +449,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0939184481506937</v>
+        <v>-0.0765248032469395</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.161951501120431</v>
+        <v>-0.148482662821163</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0258853951809561</v>
+        <v>-0.004566943672716</v>
       </c>
     </row>
     <row r="6">
@@ -463,13 +463,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.17370172563329</v>
+        <v>-0.171200400434677</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.250128016385663</v>
+        <v>-0.252797961937622</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0972754348809171</v>
+        <v>-0.0896028389317323</v>
       </c>
     </row>
     <row r="7">
@@ -477,13 +477,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.112843680712125</v>
+        <v>-0.0937905063089196</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.21030116511403</v>
+        <v>-0.197428467420491</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0153861963102188</v>
+        <v>0.00984745480265203</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0404812496369166</v>
+        <v>0.00503032067922172</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.130309288116866</v>
+        <v>-0.0896479045450339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0493467888430328</v>
+        <v>0.0997085459034773</v>
       </c>
     </row>
     <row r="9">
@@ -505,13 +505,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0191721690712545</v>
+        <v>0.0434352917667326</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0603615840597693</v>
+        <v>-0.0399376672538099</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0987059222022782</v>
+        <v>0.126808250787275</v>
       </c>
     </row>
     <row r="10">
@@ -519,13 +519,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0583638302707828</v>
+        <v>0.0845158701934025</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0512298000135148</v>
+        <v>-0.030081917545833</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16795746055508</v>
+        <v>0.199113657932638</v>
       </c>
     </row>
     <row r="11">
@@ -533,13 +533,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0184264255454356</v>
+        <v>-0.00527322075229465</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0677962933855345</v>
+        <v>-0.0576177795886535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0309434422946632</v>
+        <v>0.0470713380840642</v>
       </c>
     </row>
     <row r="12">
@@ -547,13 +547,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.066834616836694</v>
+        <v>-0.0530237098185993</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.105377543224187</v>
+        <v>-0.0941783085364134</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0282916904492011</v>
+        <v>-0.0118691111007853</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut_aid_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0405101384793125</v>
+        <v>-0.0369230526111967</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0643051395617496</v>
+        <v>-0.0537172564458189</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0167151373968755</v>
+        <v>-0.0201288487765744</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0395525406328933</v>
+        <v>-0.0326947926612725</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0736720078149598</v>
+        <v>-0.0567668583978697</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00543307345082682</v>
+        <v>-0.00862272692467531</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0252544925943794</v>
+        <v>0.0104793786936969</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0598679690449487</v>
+        <v>-0.0487924649769307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110376954233708</v>
+        <v>0.0697512223643246</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0765248032469395</v>
+        <v>-0.0318036380677912</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.148482662821163</v>
+        <v>-0.0822965950065573</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.004566943672716</v>
+        <v>0.018689318870975</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.171200400434677</v>
+        <v>-0.109397459518373</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.252797961937622</v>
+        <v>-0.168418320346958</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0896028389317323</v>
+        <v>-0.0503765986897887</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0937905063089196</v>
+        <v>-0.0547199015664292</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.197428467420491</v>
+        <v>-0.129578069801682</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00984745480265203</v>
+        <v>0.020138266668824</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00503032067922172</v>
+        <v>-0.0660407385949495</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0896479045450339</v>
+        <v>-0.133166395952546</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0997085459034773</v>
+        <v>0.00108491876264682</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0434352917667326</v>
+        <v>0.00775068673104141</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0399376672538099</v>
+        <v>-0.0503794672190532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.126808250787275</v>
+        <v>0.0658808406811361</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0845158701934025</v>
+        <v>0.0942258340778483</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.030081917545833</v>
+        <v>0.0119770053178827</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199113657932638</v>
+        <v>0.176474662837814</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00527322075229465</v>
+        <v>-0.00397790188562713</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0576177795886535</v>
+        <v>-0.0405513824024224</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0470713380840642</v>
+        <v>0.0325955786311682</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0530237098185993</v>
+        <v>-0.0537680139261422</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0941783085364134</v>
+        <v>-0.0829294105584232</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0118691111007853</v>
+        <v>-0.0246066172938611</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
@@ -419,10 +419,10 @@
         <v>-0.0369230526111967</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0537172564458189</v>
+        <v>-0.053717256445819</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0201288487765744</v>
+        <v>-0.0201288487765745</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0326947926612725</v>
+        <v>-0.0326947926612728</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0567668583978697</v>
+        <v>-0.0567668583978701</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00862272692467531</v>
+        <v>-0.00862272692467547</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -453,7 +453,7 @@
         <v>0.0104793786936969</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0487924649769307</v>
+        <v>-0.0487924649769308</v>
       </c>
       <c r="D4" t="n">
         <v>0.0697512223643246</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0318036380677912</v>
+        <v>-0.0318036380677914</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0822965950065573</v>
+        <v>-0.0822965950065577</v>
       </c>
       <c r="D5" t="n">
         <v>0.018689318870975</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0547199015664292</v>
+        <v>-0.0547199015664291</v>
       </c>
       <c r="C7" t="n">
         <v>-0.129578069801682</v>
       </c>
       <c r="D7" t="n">
-        <v>0.020138266668824</v>
+        <v>0.0201382666688242</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0660407385949495</v>
+        <v>-0.0660407385949494</v>
       </c>
       <c r="C8" t="n">
         <v>-0.133166395952546</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00108491876264682</v>
+        <v>0.00108491876264691</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00775068673104141</v>
+        <v>0.00775068673104161</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0503794672190532</v>
+        <v>-0.0503794672190531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0658808406811361</v>
+        <v>0.0658808406811363</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,10 +552,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0942258340778483</v>
+        <v>0.0942258340778482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0119770053178827</v>
+        <v>0.0119770053178828</v>
       </c>
       <c r="D10" t="n">
         <v>0.176474662837814</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00397790188562713</v>
+        <v>-0.00397790188562737</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0405513824024224</v>
+        <v>-0.0405513824024227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0325955786311682</v>
+        <v>0.032595578631168</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0537680139261422</v>
+        <v>-0.0537680139261416</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0829294105584232</v>
+        <v>-0.0829294105584222</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0246066172938611</v>
+        <v>-0.024606617293861</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0369230526111967</v>
+        <v>-0.0368476975148486</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.053717256445819</v>
+        <v>-0.0536513257228129</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0201288487765745</v>
+        <v>-0.0200440693068842</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0326947926612728</v>
+        <v>-0.0326947926612726</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0567668583978701</v>
+        <v>-0.0567668583978698</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00862272692467547</v>
+        <v>-0.00862272692467542</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,7 +456,7 @@
         <v>-0.0487924649769308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0697512223643246</v>
+        <v>0.0697512223643245</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0318036380677914</v>
+        <v>-0.0318036380677913</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0822965950065577</v>
+        <v>-0.0822965950065574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.018689318870975</v>
+        <v>0.0186893188709749</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.109397459518373</v>
+        <v>-0.109397459518374</v>
       </c>
       <c r="C6" t="n">
         <v>-0.168418320346958</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0503765986897887</v>
+        <v>-0.0503765986897891</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0660407385949494</v>
+        <v>-0.0660407385949495</v>
       </c>
       <c r="C8" t="n">
         <v>-0.133166395952546</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00108491876264691</v>
+        <v>0.00108491876264688</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00775068673104161</v>
+        <v>0.00775068673104159</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0503794672190531</v>
+        <v>-0.050379467219053</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0658808406811363</v>
+        <v>0.0658808406811362</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -555,7 +555,7 @@
         <v>0.0942258340778482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0119770053178828</v>
+        <v>0.0119770053178825</v>
       </c>
       <c r="D10" t="n">
         <v>0.176474662837814</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00397790188562737</v>
+        <v>-0.00403137556626488</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0405513824024227</v>
+        <v>-0.0406048603968052</v>
       </c>
       <c r="D11" t="n">
-        <v>0.032595578631168</v>
+        <v>0.0325421092642755</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0537680139261416</v>
+        <v>-0.0534948171234771</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0829294105584222</v>
+        <v>-0.082673481961128</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.024606617293861</v>
+        <v>-0.0243161522858262</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
@@ -422,7 +422,7 @@
         <v>-0.0536513257228129</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0200440693068842</v>
+        <v>-0.0200440693068843</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,10 +436,10 @@
         <v>-0.0326947926612726</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0567668583978698</v>
+        <v>-0.0567668583978699</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00862272692467542</v>
+        <v>-0.00862272692467536</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0318036380677913</v>
+        <v>-0.0318036380677912</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0822965950065574</v>
+        <v>-0.0822965950065573</v>
       </c>
       <c r="D5" t="n">
         <v>0.0186893188709749</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.109397459518374</v>
+        <v>-0.109397459518373</v>
       </c>
       <c r="C6" t="n">
         <v>-0.168418320346958</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0503765986897891</v>
+        <v>-0.0503765986897889</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0547199015664291</v>
+        <v>-0.0547199015664295</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.129578069801682</v>
+        <v>-0.129578069801683</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0201382666688242</v>
+        <v>0.0201382666688238</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,7 +524,7 @@
         <v>-0.133166395952546</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00108491876264688</v>
+        <v>0.00108491876264687</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00775068673104159</v>
+        <v>0.00775068673104143</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.050379467219053</v>
+        <v>-0.0503794672190531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0658808406811362</v>
+        <v>0.065880840681136</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,10 +552,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0942258340778482</v>
+        <v>0.0942258340778483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0119770053178825</v>
+        <v>0.0119770053178828</v>
       </c>
       <c r="D10" t="n">
         <v>0.176474662837814</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00403137556626488</v>
+        <v>-0.00403137556626472</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0406048603968052</v>
+        <v>-0.040604860396805</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0325421092642755</v>
+        <v>0.0325421092642756</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0534948171234771</v>
+        <v>-0.0534948171234775</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.082673481961128</v>
+        <v>-0.0826734819611284</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0243161522858262</v>
+        <v>-0.0243161522858266</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0368476975148486</v>
+        <v>-0.0285206501186213</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0536513257228129</v>
+        <v>-0.0479582290814959</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0200440693068843</v>
+        <v>-0.00908307115574678</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0326947926612726</v>
+        <v>-0.0290626199135686</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0567668583978699</v>
+        <v>-0.0569407723027115</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00862272692467536</v>
+        <v>-0.00118446752442565</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0104793786936969</v>
+        <v>0.033110443883119</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0487924649769308</v>
+        <v>-0.0352747387285669</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0697512223643245</v>
+        <v>0.101495626494805</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0318036380677912</v>
+        <v>-0.0350051449863957</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0822965950065573</v>
+        <v>-0.0941674258747337</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0186893188709749</v>
+        <v>0.0241571359019422</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.109397459518373</v>
+        <v>-0.0872927586103162</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.168418320346958</v>
+        <v>-0.156584305864535</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0503765986897889</v>
+        <v>-0.0180012113560977</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0547199015664295</v>
+        <v>-0.0577970176797709</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.129578069801683</v>
+        <v>-0.143158321357217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0201382666688238</v>
+        <v>0.0275642859976751</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0660407385949495</v>
+        <v>-0.0610818527476909</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.133166395952546</v>
+        <v>-0.1384787002464</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00108491876264687</v>
+        <v>0.0163149947510181</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00775068673104143</v>
+        <v>0.0017208024271681</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0503794672190531</v>
+        <v>-0.0661592437392366</v>
       </c>
       <c r="D9" t="n">
-        <v>0.065880840681136</v>
+        <v>0.0696008485935728</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0942258340778483</v>
+        <v>0.0297145382849383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0119770053178828</v>
+        <v>-0.0658191010316757</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176474662837814</v>
+        <v>0.125248177601552</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00403137556626472</v>
+        <v>0.0139280991091298</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.040604860396805</v>
+        <v>-0.0281260735767049</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0325421092642756</v>
+        <v>0.0559822717949646</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0534948171234775</v>
+        <v>-0.0438759180204559</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0826734819611284</v>
+        <v>-0.0777049073810837</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0243161522858266</v>
+        <v>-0.0100469286598281</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0285206501186213</v>
+        <v>-0.0293406506834952</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0479582290814959</v>
+        <v>-0.0488062004766289</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00908307115574678</v>
+        <v>-0.00987510089036144</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0290626199135686</v>
+        <v>-0.0296391153987279</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0569407723027115</v>
+        <v>-0.057547007576322</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00118446752442565</v>
+        <v>-0.00173122322113387</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.033110443883119</v>
+        <v>0.034879051678272</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0352747387285669</v>
+        <v>-0.0331409038833701</v>
       </c>
       <c r="D4" t="n">
-        <v>0.101495626494805</v>
+        <v>0.102899007239914</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0350051449863957</v>
+        <v>-0.03503049913608</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0941674258747337</v>
+        <v>-0.094305029270505</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0241571359019422</v>
+        <v>0.0242440309983449</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0872927586103162</v>
+        <v>-0.0869421006583326</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.156584305864535</v>
+        <v>-0.156088337126399</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0180012113560977</v>
+        <v>-0.0177958641902661</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0577970176797709</v>
+        <v>-0.0588609742450847</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.143158321357217</v>
+        <v>-0.143736338359684</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0275642859976751</v>
+        <v>0.0260143898695149</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0610818527476909</v>
+        <v>-0.0602713025075031</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1384787002464</v>
+        <v>-0.13766608275368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0163149947510181</v>
+        <v>0.0171234777386737</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0017208024271681</v>
+        <v>-0.00159003208695706</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0661592437392366</v>
+        <v>-0.0693187740560054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0696008485935728</v>
+        <v>0.0661387098820913</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0297145382849383</v>
+        <v>0.0283397235975399</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0658191010316757</v>
+        <v>-0.0665649259166874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.125248177601552</v>
+        <v>0.123244373111767</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0139280991091298</v>
+        <v>0.0147745927598571</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0281260735767049</v>
+        <v>-0.0272383349668869</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0559822717949646</v>
+        <v>0.0567875204866012</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0438759180204559</v>
+        <v>-0.045774356179931</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0777049073810837</v>
+        <v>-0.0796204624901003</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0100469286598281</v>
+        <v>-0.0119282498697617</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
